--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_12_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1785280.656606322</v>
+        <v>-1786104.07170601</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,37 +1227,37 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>11.94294668035388</v>
       </c>
       <c r="S9" t="n">
         <v>11.94294668035388</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="J10" t="n">
         <v>11.94294668035388</v>
@@ -1336,7 +1336,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="R10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>293.1447203119561</v>
+        <v>293.1447203119562</v>
       </c>
       <c r="D11" t="n">
-        <v>284.1260243564841</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>325.0399780143669</v>
       </c>
       <c r="G11" t="n">
-        <v>326.4544948093649</v>
+        <v>326.454494809365</v>
       </c>
       <c r="H11" t="n">
         <v>239.2107011623955</v>
       </c>
       <c r="I11" t="n">
-        <v>51.90074735064863</v>
+        <v>10.98679369276596</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.56594410088923</v>
+        <v>88.56594410088928</v>
       </c>
       <c r="T11" t="n">
-        <v>134.8748230868716</v>
+        <v>134.8748230868717</v>
       </c>
       <c r="U11" t="n">
         <v>167.3252820663874</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.9398800724104</v>
+        <v>273.9398800724105</v>
       </c>
       <c r="X11" t="n">
-        <v>293.240138305157</v>
+        <v>293.2401383051571</v>
       </c>
       <c r="Y11" t="n">
         <v>304.6367361013558</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.75011422897147</v>
+        <v>96.75011422897153</v>
       </c>
       <c r="C13" t="n">
-        <v>82.95010907437195</v>
+        <v>82.95010907437201</v>
       </c>
       <c r="D13" t="n">
-        <v>66.57147347195034</v>
+        <v>66.5714734719504</v>
       </c>
       <c r="E13" t="n">
-        <v>65.51922332772979</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.9861476559161</v>
+        <v>65.98614765591616</v>
       </c>
       <c r="G13" t="n">
-        <v>82.02815649136086</v>
+        <v>82.02815649136092</v>
       </c>
       <c r="H13" t="n">
-        <v>70.74035781437978</v>
+        <v>70.74035781437983</v>
       </c>
       <c r="I13" t="n">
-        <v>20.8522533080463</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.59409953341381</v>
+        <v>52.59409953341387</v>
       </c>
       <c r="S13" t="n">
-        <v>122.547744390183</v>
+        <v>122.5477443901831</v>
       </c>
       <c r="T13" t="n">
         <v>144.8832253714185</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>166.8616850826602</v>
       </c>
       <c r="V13" t="n">
-        <v>173.158250628597</v>
+        <v>173.1582506285971</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>198.3251366992104</v>
       </c>
       <c r="X13" t="n">
-        <v>143.9702386950134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>134.8451064510811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305.1334033542744</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>293.1447203119561</v>
@@ -1613,16 +1613,16 @@
         <v>284.1260243564841</v>
       </c>
       <c r="E14" t="n">
-        <v>292.4329136765208</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>325.0399780143668</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.6295446286172</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>239.2107011623955</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.56594410088921</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>134.8748230868716</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>167.3252820663874</v>
       </c>
       <c r="V14" t="n">
         <v>248.6397805944535</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>82.95010907437192</v>
       </c>
       <c r="D16" t="n">
-        <v>28.15875803743396</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>65.9861476559161</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>82.02815649136086</v>
+        <v>82.02815649136083</v>
       </c>
       <c r="H16" t="n">
-        <v>70.74035781437978</v>
+        <v>41.3525886877482</v>
       </c>
       <c r="I16" t="n">
-        <v>50.79357341598951</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.59409953341381</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>122.547744390183</v>
@@ -1828,7 +1828,7 @@
         <v>198.3251366992103</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.9702386950134</v>
       </c>
       <c r="Y16" t="n">
         <v>134.8451064510811</v>
@@ -1844,19 +1844,19 @@
         <v>235.8572252488617</v>
       </c>
       <c r="C17" t="n">
-        <v>223.8685422065435</v>
+        <v>223.8685422065434</v>
       </c>
       <c r="D17" t="n">
-        <v>214.8498462510715</v>
+        <v>214.8498462510714</v>
       </c>
       <c r="E17" t="n">
-        <v>236.591983820977</v>
+        <v>236.5919838209769</v>
       </c>
       <c r="F17" t="n">
-        <v>255.7637999089542</v>
+        <v>255.7637999089541</v>
       </c>
       <c r="G17" t="n">
-        <v>257.1783167039523</v>
+        <v>257.1783167039522</v>
       </c>
       <c r="H17" t="n">
         <v>169.9345230569828</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.28976599547659</v>
+        <v>19.28976599547786</v>
       </c>
       <c r="T17" t="n">
-        <v>65.59864498145896</v>
+        <v>65.59864498145888</v>
       </c>
       <c r="U17" t="n">
-        <v>98.04910396097475</v>
+        <v>98.04910396097466</v>
       </c>
       <c r="V17" t="n">
-        <v>179.3636024890409</v>
+        <v>179.3636024890408</v>
       </c>
       <c r="W17" t="n">
-        <v>204.6637019669978</v>
+        <v>204.6637019669977</v>
       </c>
       <c r="X17" t="n">
-        <v>223.9639601997444</v>
+        <v>223.9639601997443</v>
       </c>
       <c r="Y17" t="n">
         <v>235.3605579959431</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.47393612355881</v>
+        <v>27.47393612355873</v>
       </c>
       <c r="C19" t="n">
-        <v>43.78853603285041</v>
+        <v>13.67393096895921</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>30.11460506389233</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.75197838594821</v>
+        <v>12.75197838594812</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464179708967117</v>
+        <v>1.464179708967032</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.27156628477039</v>
+        <v>53.27156628477031</v>
       </c>
       <c r="T19" t="n">
-        <v>75.60704726600579</v>
+        <v>75.60704726600571</v>
       </c>
       <c r="U19" t="n">
-        <v>130.0597658480374</v>
+        <v>130.0597658480373</v>
       </c>
       <c r="V19" t="n">
-        <v>103.8820725231844</v>
+        <v>103.8820725231843</v>
       </c>
       <c r="W19" t="n">
-        <v>129.0489585937977</v>
+        <v>129.0489585937976</v>
       </c>
       <c r="X19" t="n">
-        <v>74.69406058960078</v>
+        <v>74.6940605896007</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.56892834566847</v>
+        <v>65.56892834566838</v>
       </c>
     </row>
     <row r="20">
@@ -2290,7 +2290,7 @@
         <v>53.27156628477031</v>
       </c>
       <c r="T22" t="n">
-        <v>105.7216523298978</v>
+        <v>105.721652329898</v>
       </c>
       <c r="U22" t="n">
         <v>130.0597658480373</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>30.11460506389179</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>12.75197838594815</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>30.11460506389174</v>
       </c>
       <c r="S25" t="n">
         <v>53.27156628477034</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.1976629109753</v>
+        <v>287.1976629109754</v>
       </c>
       <c r="C26" t="n">
         <v>275.2089798686571</v>
@@ -2570,10 +2570,10 @@
         <v>308.5187543660659</v>
       </c>
       <c r="H26" t="n">
-        <v>221.2749607190964</v>
+        <v>221.2749607190965</v>
       </c>
       <c r="I26" t="n">
-        <v>48.18443371521205</v>
+        <v>48.18443371521207</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.6302036575902</v>
+        <v>70.63020365759022</v>
       </c>
       <c r="T26" t="n">
         <v>116.9390826435726</v>
       </c>
       <c r="U26" t="n">
-        <v>149.3895416230883</v>
+        <v>149.3895416230884</v>
       </c>
       <c r="V26" t="n">
         <v>230.7040401511545</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.81437378567243</v>
+        <v>78.81437378567244</v>
       </c>
       <c r="C28" t="n">
-        <v>65.01436863107291</v>
+        <v>65.01436863107293</v>
       </c>
       <c r="D28" t="n">
-        <v>48.6357330286513</v>
+        <v>48.63573302865132</v>
       </c>
       <c r="E28" t="n">
-        <v>47.58348288443075</v>
+        <v>47.58348288443077</v>
       </c>
       <c r="F28" t="n">
-        <v>48.05040721261706</v>
+        <v>48.05040721261707</v>
       </c>
       <c r="G28" t="n">
-        <v>64.09241604806182</v>
+        <v>64.09241604806184</v>
       </c>
       <c r="H28" t="n">
-        <v>52.80461737108074</v>
+        <v>52.80461737108075</v>
       </c>
       <c r="I28" t="n">
-        <v>32.85783297269047</v>
+        <v>32.85783297269049</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65835909011476</v>
+        <v>34.65835909011477</v>
       </c>
       <c r="S28" t="n">
         <v>104.612003946884</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.1976629109754</v>
+        <v>287.1976629109753</v>
       </c>
       <c r="C29" t="n">
         <v>275.2089798686571</v>
@@ -2807,10 +2807,10 @@
         <v>308.5187543660659</v>
       </c>
       <c r="H29" t="n">
-        <v>221.2749607190965</v>
+        <v>221.2749607190964</v>
       </c>
       <c r="I29" t="n">
-        <v>48.18443371521207</v>
+        <v>48.18443371521205</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63020365759022</v>
+        <v>70.6302036575902</v>
       </c>
       <c r="T29" t="n">
         <v>116.9390826435726</v>
       </c>
       <c r="U29" t="n">
-        <v>149.3895416230884</v>
+        <v>149.3895416230883</v>
       </c>
       <c r="V29" t="n">
         <v>230.7040401511545</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.81437378567244</v>
+        <v>78.81437378567243</v>
       </c>
       <c r="C31" t="n">
-        <v>65.01436863107293</v>
+        <v>65.01436863107291</v>
       </c>
       <c r="D31" t="n">
-        <v>48.63573302865132</v>
+        <v>48.6357330286513</v>
       </c>
       <c r="E31" t="n">
-        <v>47.58348288443077</v>
+        <v>47.58348288443075</v>
       </c>
       <c r="F31" t="n">
-        <v>48.05040721261707</v>
+        <v>48.05040721261706</v>
       </c>
       <c r="G31" t="n">
-        <v>64.09241604806184</v>
+        <v>64.09241604806182</v>
       </c>
       <c r="H31" t="n">
-        <v>52.80461737108075</v>
+        <v>52.80461737108074</v>
       </c>
       <c r="I31" t="n">
-        <v>32.85783297269049</v>
+        <v>32.85783297269047</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65835909011477</v>
+        <v>34.65835909011476</v>
       </c>
       <c r="S31" t="n">
         <v>104.612003946884</v>
@@ -3038,16 +3038,16 @@
         <v>284.8425423179494</v>
       </c>
       <c r="F32" t="n">
-        <v>304.0143584059266</v>
+        <v>304.0143584059265</v>
       </c>
       <c r="G32" t="n">
         <v>305.4288752009247</v>
       </c>
       <c r="H32" t="n">
-        <v>218.1850815539553</v>
+        <v>218.1850815539552</v>
       </c>
       <c r="I32" t="n">
-        <v>45.09455455007085</v>
+        <v>45.09455455007084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.540324492449</v>
+        <v>67.54032449244899</v>
       </c>
       <c r="T32" t="n">
         <v>113.8492034784314</v>
       </c>
       <c r="U32" t="n">
-        <v>146.2996624579472</v>
+        <v>146.2996624579471</v>
       </c>
       <c r="V32" t="n">
-        <v>227.6141609860133</v>
+        <v>227.6141609860132</v>
       </c>
       <c r="W32" t="n">
         <v>252.9142604639702</v>
@@ -3095,7 +3095,7 @@
         <v>272.2145186967168</v>
       </c>
       <c r="Y32" t="n">
-        <v>283.6111164929156</v>
+        <v>283.6111164929155</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.72449462053123</v>
+        <v>75.72449462053122</v>
       </c>
       <c r="C34" t="n">
-        <v>61.92448946593171</v>
+        <v>61.9244894659317</v>
       </c>
       <c r="D34" t="n">
-        <v>45.5458538635101</v>
+        <v>45.54585386351009</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49360371928955</v>
+        <v>44.49360371928954</v>
       </c>
       <c r="F34" t="n">
-        <v>44.96052804747586</v>
+        <v>44.96052804747585</v>
       </c>
       <c r="G34" t="n">
-        <v>61.00253688292062</v>
+        <v>61.00253688292061</v>
       </c>
       <c r="H34" t="n">
-        <v>49.71473820593953</v>
+        <v>49.71473820593952</v>
       </c>
       <c r="I34" t="n">
-        <v>29.76795380754927</v>
+        <v>29.76795380754926</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.56847992497357</v>
+        <v>31.56847992497356</v>
       </c>
       <c r="S34" t="n">
         <v>101.5221247817428</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>42.86658344983994</v>
+        <v>12.75197838594815</v>
       </c>
       <c r="H37" t="n">
         <v>1.46417970896706</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>18.66702808690973</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>53.27156628477034</v>
       </c>
       <c r="T37" t="n">
-        <v>75.60704726600574</v>
+        <v>87.0546242429877</v>
       </c>
       <c r="U37" t="n">
         <v>130.0597658480373</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488616</v>
       </c>
       <c r="C38" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065433</v>
       </c>
       <c r="D38" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510713</v>
       </c>
       <c r="E38" t="n">
-        <v>236.5919838209769</v>
+        <v>236.5919838209768</v>
       </c>
       <c r="F38" t="n">
-        <v>255.7637999089541</v>
+        <v>255.763799908954</v>
       </c>
       <c r="G38" t="n">
-        <v>257.1783167039522</v>
+        <v>257.1783167039521</v>
       </c>
       <c r="H38" t="n">
-        <v>169.9345230569828</v>
+        <v>169.9345230569827</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.28976599547653</v>
+        <v>19.28976599547642</v>
       </c>
       <c r="T38" t="n">
-        <v>65.5986449814589</v>
+        <v>65.59864498145879</v>
       </c>
       <c r="U38" t="n">
-        <v>98.04910396097469</v>
+        <v>98.04910396097458</v>
       </c>
       <c r="V38" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890407</v>
       </c>
       <c r="W38" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669976</v>
       </c>
       <c r="X38" t="n">
-        <v>223.9639601997443</v>
+        <v>223.9639601997442</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.3605579959431</v>
+        <v>235.360557995943</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.47393612355876</v>
+        <v>27.47393612355864</v>
       </c>
       <c r="C40" t="n">
-        <v>13.67393096895924</v>
+        <v>13.67393096895913</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.75197838594815</v>
+        <v>12.75197838594804</v>
       </c>
       <c r="H40" t="n">
-        <v>1.46417970896706</v>
+        <v>1.464179708966947</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.44757697698335</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.66702808690973</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>83.38617134866203</v>
+        <v>53.27156628477022</v>
       </c>
       <c r="T40" t="n">
-        <v>75.60704726600574</v>
+        <v>75.60704726600562</v>
       </c>
       <c r="U40" t="n">
-        <v>130.0597658480373</v>
+        <v>130.0597658480372</v>
       </c>
       <c r="V40" t="n">
-        <v>103.8820725231843</v>
+        <v>103.8820725231842</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0489585937976</v>
+        <v>129.0489585937975</v>
       </c>
       <c r="X40" t="n">
-        <v>74.69406058960072</v>
+        <v>74.69406058960061</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.56892834566841</v>
+        <v>65.5689283456683</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.8572252488617</v>
+        <v>235.8572252488616</v>
       </c>
       <c r="C41" t="n">
-        <v>223.8685422065434</v>
+        <v>223.8685422065433</v>
       </c>
       <c r="D41" t="n">
-        <v>214.8498462510714</v>
+        <v>214.8498462510713</v>
       </c>
       <c r="E41" t="n">
-        <v>236.5919838209769</v>
+        <v>236.5919838209768</v>
       </c>
       <c r="F41" t="n">
-        <v>255.7637999089541</v>
+        <v>255.763799908954</v>
       </c>
       <c r="G41" t="n">
-        <v>257.1783167039522</v>
+        <v>257.1783167039521</v>
       </c>
       <c r="H41" t="n">
-        <v>169.9345230569828</v>
+        <v>169.9345230569827</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S41" t="n">
-        <v>19.28976599547652</v>
+        <v>19.2897659954764</v>
       </c>
       <c r="T41" t="n">
-        <v>65.5986449814589</v>
+        <v>65.59864498145879</v>
       </c>
       <c r="U41" t="n">
-        <v>98.04910396097469</v>
+        <v>98.04910396097458</v>
       </c>
       <c r="V41" t="n">
-        <v>179.3636024890408</v>
+        <v>179.3636024890407</v>
       </c>
       <c r="W41" t="n">
-        <v>204.6637019669977</v>
+        <v>204.6637019669976</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9639601997443</v>
+        <v>223.9639601997442</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.3605579959431</v>
+        <v>235.360557995943</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.47393612355876</v>
+        <v>27.47393612355864</v>
       </c>
       <c r="C43" t="n">
-        <v>13.67393096895924</v>
+        <v>13.67393096895913</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.75197838594815</v>
+        <v>12.75197838594804</v>
       </c>
       <c r="H43" t="n">
-        <v>1.46417970896706</v>
+        <v>1.464179708966947</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>83.38617134866203</v>
+        <v>53.27156628477022</v>
       </c>
       <c r="T43" t="n">
-        <v>75.60704726600574</v>
+        <v>75.60704726600562</v>
       </c>
       <c r="U43" t="n">
-        <v>130.0597658480373</v>
+        <v>160.1743709119303</v>
       </c>
       <c r="V43" t="n">
-        <v>103.8820725231843</v>
+        <v>103.8820725231842</v>
       </c>
       <c r="W43" t="n">
-        <v>129.0489585937976</v>
+        <v>129.0489585937975</v>
       </c>
       <c r="X43" t="n">
-        <v>74.69406058960072</v>
+        <v>74.69406058960061</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.56892834566841</v>
+        <v>65.5689283456683</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.28976599547652</v>
+        <v>19.2897659954765</v>
       </c>
       <c r="T44" t="n">
-        <v>65.5986449814589</v>
+        <v>65.59864498145888</v>
       </c>
       <c r="U44" t="n">
-        <v>98.04910396097469</v>
+        <v>98.04910396097466</v>
       </c>
       <c r="V44" t="n">
         <v>179.3636024890408</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.47393612355876</v>
+        <v>27.47393612355873</v>
       </c>
       <c r="C46" t="n">
-        <v>13.67393096895924</v>
+        <v>13.67393096895921</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.75197838594815</v>
+        <v>12.75197838594812</v>
       </c>
       <c r="H46" t="n">
-        <v>1.46417970896706</v>
+        <v>1.464179708967032</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.27156628477034</v>
+        <v>83.38617134866237</v>
       </c>
       <c r="T46" t="n">
-        <v>75.60704726600574</v>
+        <v>75.60704726600571</v>
       </c>
       <c r="U46" t="n">
         <v>130.0597658480373</v>
       </c>
       <c r="V46" t="n">
-        <v>133.9966775870761</v>
+        <v>103.8820725231843</v>
       </c>
       <c r="W46" t="n">
         <v>129.0489585937976</v>
       </c>
       <c r="X46" t="n">
-        <v>74.69406058960072</v>
+        <v>74.6940605896007</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.56892834566841</v>
+        <v>65.56892834566838</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F8" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G8" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H8" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I8" t="n">
         <v>0.9554357344283108</v>
@@ -4805,22 +4805,22 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K8" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L8" t="n">
-        <v>24.60247016152901</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M8" t="n">
-        <v>36.42598737507935</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="N8" t="n">
-        <v>47.77178672141554</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O8" t="n">
-        <v>47.77178672141554</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
@@ -4829,25 +4829,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D9" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E9" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F9" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G9" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H9" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I9" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N9" t="n">
-        <v>12.77895294797866</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O9" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="E10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="G10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="H10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="I10" t="n">
         <v>13.01901823983628</v>
@@ -4969,13 +4969,13 @@
         <v>24.60247016152901</v>
       </c>
       <c r="M10" t="n">
-        <v>36.42598737507935</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N10" t="n">
-        <v>47.77178672141554</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
@@ -4984,28 +4984,28 @@
         <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T10" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U10" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V10" t="n">
-        <v>25.08260074524424</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.08260074524424</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>1257.563743625552</v>
       </c>
       <c r="C11" t="n">
-        <v>961.4579655326673</v>
+        <v>961.4579655326669</v>
       </c>
       <c r="D11" t="n">
-        <v>674.4619813341985</v>
+        <v>961.4579655326669</v>
       </c>
       <c r="E11" t="n">
-        <v>674.4619813341985</v>
+        <v>961.4579655326669</v>
       </c>
       <c r="F11" t="n">
-        <v>674.4619813341985</v>
+        <v>633.1347554171448</v>
       </c>
       <c r="G11" t="n">
-        <v>344.7099663752438</v>
+        <v>303.3827404581903</v>
       </c>
       <c r="H11" t="n">
-        <v>103.0829955041374</v>
+        <v>61.75576958708416</v>
       </c>
       <c r="I11" t="n">
         <v>50.65799818024986</v>
       </c>
       <c r="J11" t="n">
-        <v>50.65799818024986</v>
+        <v>151.5762744243292</v>
       </c>
       <c r="K11" t="n">
-        <v>356.125584914599</v>
+        <v>457.0438611586783</v>
       </c>
       <c r="L11" t="n">
-        <v>785.0551444494238</v>
+        <v>885.9734206935032</v>
       </c>
       <c r="M11" t="n">
-        <v>1268.471583670953</v>
+        <v>1369.389859915032</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.439377881175</v>
+        <v>1839.357654125254</v>
       </c>
       <c r="O11" t="n">
-        <v>2129.97364991453</v>
+        <v>2230.89192615861</v>
       </c>
       <c r="P11" t="n">
-        <v>2431.981632768414</v>
+        <v>2532.899909012493</v>
       </c>
       <c r="Q11" t="n">
         <v>2532.899909012493</v>
@@ -5078,10 +5078,10 @@
         <v>2138.186727947697</v>
       </c>
       <c r="W11" t="n">
-        <v>1861.479778379606</v>
+        <v>1861.479778379605</v>
       </c>
       <c r="X11" t="n">
-        <v>1565.277618475407</v>
+        <v>1565.277618475406</v>
       </c>
       <c r="Y11" t="n">
         <v>1257.563743625552</v>
@@ -5112,7 +5112,7 @@
         <v>206.6177120051398</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3875410343535</v>
+        <v>109.3875410343539</v>
       </c>
       <c r="I12" t="n">
         <v>50.65799818024986</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.89812054768</v>
+        <v>422.6542047539663</v>
       </c>
       <c r="C13" t="n">
-        <v>426.1101315836679</v>
+        <v>338.8662157899541</v>
       </c>
       <c r="D13" t="n">
-        <v>358.8662189857382</v>
+        <v>271.6223031920244</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6851853213647</v>
+        <v>271.6223031920244</v>
       </c>
       <c r="F13" t="n">
-        <v>226.0325109214495</v>
+        <v>204.9696287921091</v>
       </c>
       <c r="G13" t="n">
-        <v>143.1757871928021</v>
+        <v>122.1129050634618</v>
       </c>
       <c r="H13" t="n">
-        <v>71.72088030958956</v>
+        <v>50.65799818024986</v>
       </c>
       <c r="I13" t="n">
         <v>50.65799818024986</v>
       </c>
       <c r="J13" t="n">
-        <v>92.20284555917316</v>
+        <v>92.20284555917303</v>
       </c>
       <c r="K13" t="n">
         <v>236.6914878212666</v>
@@ -5206,43 +5206,43 @@
         <v>455.6678532729345</v>
       </c>
       <c r="M13" t="n">
-        <v>693.8924292330552</v>
+        <v>693.8924292330551</v>
       </c>
       <c r="N13" t="n">
-        <v>931.6872003761921</v>
+        <v>931.6872003761919</v>
       </c>
       <c r="O13" t="n">
-        <v>1146.83217147495</v>
+        <v>1146.832171474949</v>
       </c>
       <c r="P13" t="n">
         <v>1321.782494086456</v>
       </c>
       <c r="Q13" t="n">
-        <v>1387.422140041295</v>
+        <v>1387.422140041294</v>
       </c>
       <c r="R13" t="n">
         <v>1334.29678697724</v>
       </c>
       <c r="S13" t="n">
-        <v>1210.511186583116</v>
+        <v>1210.511186583115</v>
       </c>
       <c r="T13" t="n">
-        <v>1064.164494288754</v>
+        <v>1064.164494288753</v>
       </c>
       <c r="U13" t="n">
-        <v>1064.164494288754</v>
+        <v>895.6173376396016</v>
       </c>
       <c r="V13" t="n">
-        <v>889.257170421484</v>
+        <v>720.7100137723318</v>
       </c>
       <c r="W13" t="n">
-        <v>889.257170421484</v>
+        <v>520.3815928640386</v>
       </c>
       <c r="X13" t="n">
-        <v>743.8326868911674</v>
+        <v>520.3815928640386</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.6255086577522</v>
+        <v>520.3815928640386</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1260.828112892064</v>
+        <v>1174.330490770979</v>
       </c>
       <c r="C14" t="n">
-        <v>964.7223347991792</v>
+        <v>878.2247126780935</v>
       </c>
       <c r="D14" t="n">
-        <v>677.7263506007104</v>
+        <v>591.2287284796248</v>
       </c>
       <c r="E14" t="n">
-        <v>382.3395691092755</v>
+        <v>591.2287284796248</v>
       </c>
       <c r="F14" t="n">
-        <v>54.01635899375343</v>
+        <v>591.2287284796248</v>
       </c>
       <c r="G14" t="n">
-        <v>54.01635899375343</v>
+        <v>295.64332986486</v>
       </c>
       <c r="H14" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I14" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J14" t="n">
         <v>169.6029711321573</v>
@@ -5282,19 +5282,19 @@
         <v>475.0705578665064</v>
       </c>
       <c r="L14" t="n">
-        <v>904.0001174013312</v>
+        <v>904.000117401331</v>
       </c>
       <c r="M14" t="n">
-        <v>1387.416556622861</v>
+        <v>1387.41655662286</v>
       </c>
       <c r="N14" t="n">
-        <v>1857.384350833083</v>
+        <v>1857.384350833082</v>
       </c>
       <c r="O14" t="n">
         <v>2248.918622866438</v>
       </c>
       <c r="P14" t="n">
-        <v>2550.926605720322</v>
+        <v>2550.926605720321</v>
       </c>
       <c r="Q14" t="n">
         <v>2700.817949687671</v>
@@ -5303,25 +5303,25 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S14" t="n">
-        <v>2700.817949687671</v>
+        <v>2611.357400090813</v>
       </c>
       <c r="T14" t="n">
-        <v>2700.817949687671</v>
+        <v>2475.120205053569</v>
       </c>
       <c r="U14" t="n">
-        <v>2700.817949687671</v>
+        <v>2306.104768622874</v>
       </c>
       <c r="V14" t="n">
-        <v>2449.66665615792</v>
+        <v>2054.953475093123</v>
       </c>
       <c r="W14" t="n">
-        <v>2172.959706589829</v>
+        <v>1778.246525525032</v>
       </c>
       <c r="X14" t="n">
-        <v>1876.75754668563</v>
+        <v>1482.044365620833</v>
       </c>
       <c r="Y14" t="n">
-        <v>1569.043671835776</v>
+        <v>1174.330490770979</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>473.1180109372133</v>
       </c>
       <c r="F15" t="n">
-        <v>338.4242128870877</v>
+        <v>338.4242128870876</v>
       </c>
       <c r="G15" t="n">
         <v>209.9760728186436</v>
@@ -5352,28 +5352,28 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I15" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J15" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K15" t="n">
-        <v>414.0928773007159</v>
+        <v>327.8779761550182</v>
       </c>
       <c r="L15" t="n">
-        <v>839.5770945564517</v>
+        <v>753.362193410754</v>
       </c>
       <c r="M15" t="n">
-        <v>1394.233622198307</v>
+        <v>1308.018721052609</v>
       </c>
       <c r="N15" t="n">
-        <v>1531.266848526716</v>
+        <v>1890.750259556404</v>
       </c>
       <c r="O15" t="n">
-        <v>1988.844128843815</v>
+        <v>2181.691279832922</v>
       </c>
       <c r="P15" t="n">
-        <v>2343.411118836889</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="Q15" t="n">
         <v>2536.258269825996</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>354.7304937564608</v>
+        <v>262.4313632901988</v>
       </c>
       <c r="C16" t="n">
-        <v>354.7304937564608</v>
+        <v>178.6433743261868</v>
       </c>
       <c r="D16" t="n">
-        <v>326.2873038196588</v>
+        <v>178.6433743261868</v>
       </c>
       <c r="E16" t="n">
-        <v>326.2873038196588</v>
+        <v>178.6433743261868</v>
       </c>
       <c r="F16" t="n">
-        <v>259.6346294197435</v>
+        <v>178.6433743261868</v>
       </c>
       <c r="G16" t="n">
-        <v>176.7779056910962</v>
+        <v>95.78665059753948</v>
       </c>
       <c r="H16" t="n">
-        <v>105.3229988078842</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="I16" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="J16" t="n">
-        <v>95.56120637267672</v>
+        <v>95.56120637267674</v>
       </c>
       <c r="K16" t="n">
-        <v>240.0498486347703</v>
+        <v>240.0498486347704</v>
       </c>
       <c r="L16" t="n">
-        <v>459.0262140864382</v>
+        <v>459.0262140864384</v>
       </c>
       <c r="M16" t="n">
-        <v>697.2507900465588</v>
+        <v>697.2507900465589</v>
       </c>
       <c r="N16" t="n">
-        <v>935.0455611896957</v>
+        <v>935.0455611896958</v>
       </c>
       <c r="O16" t="n">
         <v>1150.190532288453</v>
@@ -5458,28 +5458,28 @@
         <v>1390.780500854798</v>
       </c>
       <c r="R16" t="n">
-        <v>1337.655147790744</v>
+        <v>1390.780500854798</v>
       </c>
       <c r="S16" t="n">
-        <v>1213.86954739662</v>
+        <v>1266.994900460674</v>
       </c>
       <c r="T16" t="n">
-        <v>1067.522855102257</v>
+        <v>1120.648208166312</v>
       </c>
       <c r="U16" t="n">
-        <v>866.1734167654391</v>
+        <v>919.2987698294936</v>
       </c>
       <c r="V16" t="n">
-        <v>691.2660928981693</v>
+        <v>744.3914459622239</v>
       </c>
       <c r="W16" t="n">
-        <v>490.937671989876</v>
+        <v>544.0630250539307</v>
       </c>
       <c r="X16" t="n">
-        <v>490.937671989876</v>
+        <v>398.6385415236141</v>
       </c>
       <c r="Y16" t="n">
-        <v>354.7304937564608</v>
+        <v>262.4313632901988</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.922431668987</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C17" t="n">
         <v>1199.792591056316</v>
       </c>
       <c r="D17" t="n">
-        <v>982.7725443380623</v>
+        <v>982.7725443380616</v>
       </c>
       <c r="E17" t="n">
-        <v>743.7907424986914</v>
+        <v>743.790742498691</v>
       </c>
       <c r="F17" t="n">
-        <v>485.4434698633843</v>
+        <v>485.4434698633838</v>
       </c>
       <c r="G17" t="n">
-        <v>225.6673923846452</v>
+        <v>225.6673923846451</v>
       </c>
       <c r="H17" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="I17" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J17" t="n">
         <v>169.6029711321579</v>
@@ -5534,31 +5534,31 @@
         <v>2550.926605720322</v>
       </c>
       <c r="Q17" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="R17" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="S17" t="n">
-        <v>2681.333337571029</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T17" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080013998</v>
       </c>
       <c r="U17" t="n">
-        <v>2516.03258106352</v>
+        <v>2516.032581063519</v>
       </c>
       <c r="V17" t="n">
-        <v>2334.857225013984</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W17" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926106</v>
       </c>
       <c r="X17" t="n">
-        <v>1901.899990502123</v>
+        <v>1901.899990502122</v>
       </c>
       <c r="Y17" t="n">
-        <v>1664.162053132483</v>
+        <v>1664.162053132482</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I18" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J18" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="K18" t="n">
         <v>161.2417161144369</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>112.6069591228097</v>
+        <v>112.6069591228107</v>
       </c>
       <c r="C19" t="n">
-        <v>68.37611464518305</v>
+        <v>98.79490763901353</v>
       </c>
       <c r="D19" t="n">
-        <v>68.37611464518305</v>
+        <v>68.37611464518289</v>
       </c>
       <c r="E19" t="n">
-        <v>68.37611464518305</v>
+        <v>68.37611464518289</v>
       </c>
       <c r="F19" t="n">
-        <v>68.37611464518305</v>
+        <v>68.37611464518289</v>
       </c>
       <c r="G19" t="n">
-        <v>55.49532839675052</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H19" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="I19" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J19" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="K19" t="n">
-        <v>114.3849974949681</v>
+        <v>114.3849974949682</v>
       </c>
       <c r="L19" t="n">
-        <v>249.2413591857571</v>
+        <v>249.2413591857572</v>
       </c>
       <c r="M19" t="n">
-        <v>403.3459313849988</v>
+        <v>403.3459313849989</v>
       </c>
       <c r="N19" t="n">
-        <v>557.0206987672568</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O19" t="n">
-        <v>688.0456661051351</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P19" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q19" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R19" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S19" t="n">
-        <v>725.0663220418535</v>
+        <v>725.0663220418538</v>
       </c>
       <c r="T19" t="n">
-        <v>648.6955672277062</v>
+        <v>648.6955672277066</v>
       </c>
       <c r="U19" t="n">
-        <v>517.3220663711028</v>
+        <v>517.3220663711033</v>
       </c>
       <c r="V19" t="n">
-        <v>412.3906799840478</v>
+        <v>412.3906799840485</v>
       </c>
       <c r="W19" t="n">
-        <v>282.0381965559694</v>
+        <v>282.0381965559701</v>
       </c>
       <c r="X19" t="n">
-        <v>206.5896505058676</v>
+        <v>206.5896505058684</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.3584097526671</v>
+        <v>140.358409752668</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5744,43 @@
         <v>225.6673923846451</v>
       </c>
       <c r="H20" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="I20" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J20" t="n">
-        <v>169.6029711321573</v>
+        <v>169.6029711321579</v>
       </c>
       <c r="K20" t="n">
-        <v>475.0705578665064</v>
+        <v>475.070557866507</v>
       </c>
       <c r="L20" t="n">
-        <v>904.0001174013312</v>
+        <v>904.0001174013319</v>
       </c>
       <c r="M20" t="n">
-        <v>1387.41655662286</v>
+        <v>1387.416556622861</v>
       </c>
       <c r="N20" t="n">
-        <v>1857.384350833082</v>
+        <v>1857.384350833083</v>
       </c>
       <c r="O20" t="n">
         <v>2248.918622866438</v>
       </c>
       <c r="P20" t="n">
-        <v>2550.926605720321</v>
+        <v>2550.926605720322</v>
       </c>
       <c r="Q20" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="R20" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.817949687672</v>
       </c>
       <c r="S20" t="n">
         <v>2681.333337571029</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.072080014001</v>
+        <v>2615.072080013999</v>
       </c>
       <c r="U20" t="n">
         <v>2516.03258106352</v>
@@ -5826,7 +5826,7 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I21" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J21" t="n">
         <v>140.2312601394511</v>
@@ -5887,55 +5887,55 @@
         <v>82.18816612898007</v>
       </c>
       <c r="C22" t="n">
-        <v>68.37611464518288</v>
+        <v>68.37611464518289</v>
       </c>
       <c r="D22" t="n">
-        <v>68.37611464518288</v>
+        <v>68.37611464518289</v>
       </c>
       <c r="E22" t="n">
-        <v>68.37611464518288</v>
+        <v>68.37611464518289</v>
       </c>
       <c r="F22" t="n">
-        <v>68.37611464518288</v>
+        <v>68.37611464518289</v>
       </c>
       <c r="G22" t="n">
-        <v>55.49532839675043</v>
+        <v>55.49532839675044</v>
       </c>
       <c r="H22" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="I22" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="J22" t="n">
-        <v>54.01635899375343</v>
+        <v>54.01635899375344</v>
       </c>
       <c r="K22" t="n">
-        <v>114.3849974949681</v>
+        <v>114.3849974949682</v>
       </c>
       <c r="L22" t="n">
-        <v>249.2413591857571</v>
+        <v>249.2413591857572</v>
       </c>
       <c r="M22" t="n">
-        <v>403.3459313849988</v>
+        <v>403.3459313849989</v>
       </c>
       <c r="N22" t="n">
-        <v>557.0206987672568</v>
+        <v>557.0206987672569</v>
       </c>
       <c r="O22" t="n">
-        <v>688.0456661051351</v>
+        <v>688.0456661051353</v>
       </c>
       <c r="P22" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="Q22" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="R22" t="n">
-        <v>778.875984955763</v>
+        <v>778.8759849557632</v>
       </c>
       <c r="S22" t="n">
-        <v>725.0663220418536</v>
+        <v>725.0663220418538</v>
       </c>
       <c r="T22" t="n">
         <v>618.276774233876</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1425.922431668986</v>
+        <v>1425.922431668987</v>
       </c>
       <c r="C23" t="n">
-        <v>1199.792591056315</v>
+        <v>1199.792591056316</v>
       </c>
       <c r="D23" t="n">
-        <v>982.7725443380614</v>
+        <v>982.7725443380623</v>
       </c>
       <c r="E23" t="n">
-        <v>743.7907424986909</v>
+        <v>743.7907424986918</v>
       </c>
       <c r="F23" t="n">
-        <v>485.4434698633841</v>
+        <v>485.443469863385</v>
       </c>
       <c r="G23" t="n">
         <v>225.6673923846451</v>
@@ -5990,10 +5990,10 @@
         <v>169.6029711321573</v>
       </c>
       <c r="K23" t="n">
-        <v>475.0705578665064</v>
+        <v>475.0705578665065</v>
       </c>
       <c r="L23" t="n">
-        <v>904.0001174013312</v>
+        <v>904.0001174013313</v>
       </c>
       <c r="M23" t="n">
         <v>1387.41655662286</v>
@@ -6017,22 +6017,22 @@
         <v>2681.333337571028</v>
       </c>
       <c r="T23" t="n">
-        <v>2615.072080013998</v>
+        <v>2615.072080013999</v>
       </c>
       <c r="U23" t="n">
-        <v>2516.032581063519</v>
+        <v>2516.03258106352</v>
       </c>
       <c r="V23" t="n">
-        <v>2334.857225013982</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W23" t="n">
-        <v>2128.126212926106</v>
+        <v>2128.126212926107</v>
       </c>
       <c r="X23" t="n">
-        <v>1901.899990502122</v>
+        <v>1901.899990502123</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.162053132482</v>
+        <v>1664.162053132483</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J24" t="n">
-        <v>54.01635899375341</v>
+        <v>140.2312601394511</v>
       </c>
       <c r="K24" t="n">
-        <v>327.8779761550182</v>
+        <v>161.2417161144369</v>
       </c>
       <c r="L24" t="n">
-        <v>753.362193410754</v>
+        <v>586.7259333701727</v>
       </c>
       <c r="M24" t="n">
-        <v>1308.018721052609</v>
+        <v>1141.382461012028</v>
       </c>
       <c r="N24" t="n">
-        <v>1890.750259556404</v>
+        <v>1724.113999515822</v>
       </c>
       <c r="O24" t="n">
-        <v>2348.327539873504</v>
+        <v>2181.691279832922</v>
       </c>
       <c r="P24" t="n">
         <v>2536.258269825996</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.6069591228102</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C25" t="n">
-        <v>98.79490763901302</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D25" t="n">
-        <v>98.79490763901302</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E25" t="n">
-        <v>98.79490763901302</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F25" t="n">
         <v>68.37611464518292</v>
@@ -6169,28 +6169,28 @@
         <v>778.875984955763</v>
       </c>
       <c r="R25" t="n">
-        <v>778.875984955763</v>
+        <v>748.4571919619329</v>
       </c>
       <c r="S25" t="n">
-        <v>725.0663220418536</v>
+        <v>694.6475290480236</v>
       </c>
       <c r="T25" t="n">
-        <v>648.6955672277064</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U25" t="n">
-        <v>517.322066371103</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V25" t="n">
-        <v>412.3906799840481</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0381965559698</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X25" t="n">
-        <v>206.589650505868</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.3584097526676</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1801.557898288067</v>
+        <v>1801.557898288068</v>
       </c>
       <c r="C26" t="n">
-        <v>1523.569029733868</v>
+        <v>1523.569029733869</v>
       </c>
       <c r="D26" t="n">
-        <v>1254.689955074085</v>
+        <v>1254.689955074086</v>
       </c>
       <c r="E26" t="n">
-        <v>963.8491252931858</v>
+        <v>963.8491252931864</v>
       </c>
       <c r="F26" t="n">
-        <v>653.6428247163493</v>
+        <v>653.6428247163502</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0077192960807</v>
+        <v>342.0077192960816</v>
       </c>
       <c r="H26" t="n">
         <v>118.4976579636606</v>
@@ -6242,7 +6242,7 @@
         <v>2875.987097467934</v>
       </c>
       <c r="P26" t="n">
-        <v>3194.25596792657</v>
+        <v>3279.871467121563</v>
       </c>
       <c r="Q26" t="n">
         <v>3446.023698693664</v>
@@ -6257,10 +6257,10 @@
         <v>3301.861714282255</v>
       </c>
       <c r="U26" t="n">
-        <v>3150.963187390245</v>
+        <v>3150.963187390246</v>
       </c>
       <c r="V26" t="n">
-        <v>2917.92880339918</v>
+        <v>2917.928803399181</v>
       </c>
       <c r="W26" t="n">
         <v>2659.338763369775</v>
@@ -6269,7 +6269,7 @@
         <v>2381.253513004262</v>
       </c>
       <c r="Y26" t="n">
-        <v>2091.656547693093</v>
+        <v>2091.656547693094</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>69.8265127967797</v>
       </c>
       <c r="J27" t="n">
-        <v>156.0414139424773</v>
+        <v>69.8265127967797</v>
       </c>
       <c r="K27" t="n">
-        <v>429.9030311037422</v>
+        <v>343.6881299580446</v>
       </c>
       <c r="L27" t="n">
-        <v>855.387248359478</v>
+        <v>769.1723472137803</v>
       </c>
       <c r="M27" t="n">
-        <v>1410.043776001333</v>
+        <v>1323.828874855635</v>
       </c>
       <c r="N27" t="n">
-        <v>1547.077002329742</v>
+        <v>1906.56041335943</v>
       </c>
       <c r="O27" t="n">
-        <v>2004.654282646842</v>
+        <v>2364.13769367653</v>
       </c>
       <c r="P27" t="n">
-        <v>2359.221272639916</v>
+        <v>2552.068423629023</v>
       </c>
       <c r="Q27" t="n">
         <v>2552.068423629023</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.4920260781992</v>
+        <v>432.4920260781993</v>
       </c>
       <c r="C28" t="n">
-        <v>366.820946652873</v>
+        <v>366.8209466528731</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6939435936292</v>
+        <v>317.6939435936293</v>
       </c>
       <c r="E28" t="n">
-        <v>269.6298194679416</v>
+        <v>269.6298194679417</v>
       </c>
       <c r="F28" t="n">
         <v>221.0940546067123</v>
@@ -6376,7 +6376,7 @@
         <v>156.3542404167508</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0162430722248</v>
+        <v>103.0162430722246</v>
       </c>
       <c r="I28" t="n">
         <v>69.8265127967797</v>
@@ -6385,7 +6385,7 @@
         <v>129.127743214569</v>
       </c>
       <c r="K28" t="n">
-        <v>291.3727685155287</v>
+        <v>291.3727685155286</v>
       </c>
       <c r="L28" t="n">
         <v>528.1055170060627</v>
@@ -6403,31 +6403,31 @@
         <v>1465.245689975048</v>
       </c>
       <c r="Q28" t="n">
-        <v>1548.641718968752</v>
+        <v>1548.641718968753</v>
       </c>
       <c r="R28" t="n">
         <v>1513.633275443384</v>
       </c>
       <c r="S28" t="n">
-        <v>1407.964584587945</v>
+        <v>1407.964584587946</v>
       </c>
       <c r="T28" t="n">
-        <v>1279.734801832269</v>
+        <v>1279.73480183227</v>
       </c>
       <c r="U28" t="n">
         <v>1096.502273034137</v>
       </c>
       <c r="V28" t="n">
-        <v>939.7118587055533</v>
+        <v>939.7118587055531</v>
       </c>
       <c r="W28" t="n">
-        <v>757.5003473359459</v>
+        <v>757.5003473359458</v>
       </c>
       <c r="X28" t="n">
         <v>630.192773344315</v>
       </c>
       <c r="Y28" t="n">
-        <v>512.1025046495854</v>
+        <v>512.1025046495856</v>
       </c>
     </row>
     <row r="29">
@@ -6437,64 +6437,64 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1801.557898288067</v>
+        <v>1801.557898288068</v>
       </c>
       <c r="C29" t="n">
-        <v>1523.569029733868</v>
+        <v>1523.569029733869</v>
       </c>
       <c r="D29" t="n">
-        <v>1254.689955074085</v>
+        <v>1254.689955074086</v>
       </c>
       <c r="E29" t="n">
-        <v>963.8491252931863</v>
+        <v>963.849125293186</v>
       </c>
       <c r="F29" t="n">
-        <v>653.6428247163503</v>
+        <v>653.6428247163499</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0077192960817</v>
+        <v>342.0077192960812</v>
       </c>
       <c r="H29" t="n">
-        <v>118.4976579636606</v>
+        <v>118.4976579636605</v>
       </c>
       <c r="I29" t="n">
-        <v>69.82651279677968</v>
+        <v>69.82651279677967</v>
       </c>
       <c r="J29" t="n">
-        <v>287.2895117349285</v>
+        <v>201.6740125399345</v>
       </c>
       <c r="K29" t="n">
-        <v>694.6334852690225</v>
+        <v>609.0179860740285</v>
       </c>
       <c r="L29" t="n">
-        <v>1225.439431603592</v>
+        <v>1139.823932408598</v>
       </c>
       <c r="M29" t="n">
-        <v>1810.732257624866</v>
+        <v>1725.116758429872</v>
       </c>
       <c r="N29" t="n">
-        <v>2382.576438634834</v>
+        <v>2296.960939439839</v>
       </c>
       <c r="O29" t="n">
-        <v>2875.987097467934</v>
+        <v>2790.37159827294</v>
       </c>
       <c r="P29" t="n">
-        <v>3194.25596792657</v>
+        <v>3194.255967926569</v>
       </c>
       <c r="Q29" t="n">
-        <v>3446.023698693664</v>
+        <v>3446.023698693663</v>
       </c>
       <c r="R29" t="n">
         <v>3491.325639838984</v>
       </c>
       <c r="S29" t="n">
-        <v>3419.981999780813</v>
+        <v>3419.981999780812</v>
       </c>
       <c r="T29" t="n">
         <v>3301.861714282254</v>
       </c>
       <c r="U29" t="n">
-        <v>3150.963187390246</v>
+        <v>3150.963187390245</v>
       </c>
       <c r="V29" t="n">
         <v>2917.92880339918</v>
@@ -6537,7 +6537,7 @@
         <v>128.5560556508836</v>
       </c>
       <c r="I30" t="n">
-        <v>69.82651279677968</v>
+        <v>69.82651279677967</v>
       </c>
       <c r="J30" t="n">
         <v>156.0414139424773</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.4920260781993</v>
+        <v>432.4920260781992</v>
       </c>
       <c r="C31" t="n">
-        <v>366.8209466528731</v>
+        <v>366.820946652873</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6939435936293</v>
+        <v>317.6939435936292</v>
       </c>
       <c r="E31" t="n">
-        <v>269.6298194679417</v>
+        <v>269.6298194679416</v>
       </c>
       <c r="F31" t="n">
         <v>221.0940546067123</v>
@@ -6613,10 +6613,10 @@
         <v>156.3542404167508</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0162430722248</v>
+        <v>103.0162430722251</v>
       </c>
       <c r="I31" t="n">
-        <v>69.82651279677968</v>
+        <v>69.82651279677967</v>
       </c>
       <c r="J31" t="n">
         <v>129.127743214569</v>
@@ -6634,37 +6634,37 @@
         <v>1039.637630187052</v>
       </c>
       <c r="O31" t="n">
-        <v>1272.538984324675</v>
+        <v>1272.538984324676</v>
       </c>
       <c r="P31" t="n">
         <v>1465.245689975048</v>
       </c>
       <c r="Q31" t="n">
-        <v>1548.641718968753</v>
+        <v>1548.641718968752</v>
       </c>
       <c r="R31" t="n">
         <v>1513.633275443384</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.964584587946</v>
+        <v>1407.964584587945</v>
       </c>
       <c r="T31" t="n">
-        <v>1279.73480183227</v>
+        <v>1279.734801832269</v>
       </c>
       <c r="U31" t="n">
         <v>1096.502273034137</v>
       </c>
       <c r="V31" t="n">
-        <v>939.7118587055531</v>
+        <v>939.7118587055529</v>
       </c>
       <c r="W31" t="n">
-        <v>757.5003473359458</v>
+        <v>757.5003473359455</v>
       </c>
       <c r="X31" t="n">
-        <v>630.192773344315</v>
+        <v>630.1927733443149</v>
       </c>
       <c r="Y31" t="n">
-        <v>512.1025046495856</v>
+        <v>512.1025046495854</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1778.754832093046</v>
+        <v>1778.754832093044</v>
       </c>
       <c r="C32" t="n">
-        <v>1503.887053604646</v>
+        <v>1503.887053604645</v>
       </c>
       <c r="D32" t="n">
-        <v>1238.129069010662</v>
+        <v>1238.129069010661</v>
       </c>
       <c r="E32" t="n">
-        <v>950.4093292955617</v>
+        <v>950.4093292955604</v>
       </c>
       <c r="F32" t="n">
-        <v>643.3241187845251</v>
+        <v>643.3241187845238</v>
       </c>
       <c r="G32" t="n">
         <v>334.8101034300544</v>
@@ -6695,7 +6695,7 @@
         <v>114.421132163433</v>
       </c>
       <c r="I32" t="n">
-        <v>68.87107706235138</v>
+        <v>68.87107706235136</v>
       </c>
       <c r="J32" t="n">
         <v>289.39305637399</v>
@@ -6707,43 +6707,43 @@
         <v>1233.660936989633</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.077376211162</v>
+        <v>1822.012743384397</v>
       </c>
       <c r="N32" t="n">
-        <v>2236.953231224466</v>
+        <v>2396.915904767854</v>
       </c>
       <c r="O32" t="n">
-        <v>2733.422870431056</v>
+        <v>2788.45017680121</v>
       </c>
       <c r="P32" t="n">
         <v>3140.366220458174</v>
       </c>
       <c r="Q32" t="n">
-        <v>3395.192931598759</v>
+        <v>3395.192931598758</v>
       </c>
       <c r="R32" t="n">
         <v>3443.553853117568</v>
       </c>
       <c r="S32" t="n">
-        <v>3375.331303125196</v>
+        <v>3375.331303125195</v>
       </c>
       <c r="T32" t="n">
-        <v>3260.332107692437</v>
+        <v>3260.332107692436</v>
       </c>
       <c r="U32" t="n">
-        <v>3112.554670866228</v>
+        <v>3112.554670866226</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.641376940962</v>
+        <v>2882.641376940961</v>
       </c>
       <c r="W32" t="n">
-        <v>2627.172426977356</v>
+        <v>2627.172426977354</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.208266677642</v>
+        <v>2352.20826667764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2065.732391432272</v>
+        <v>2065.732391432271</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6768,34 @@
         <v>353.2789309556856</v>
       </c>
       <c r="G33" t="n">
-        <v>224.8307908872416</v>
+        <v>224.8307908872415</v>
       </c>
       <c r="H33" t="n">
-        <v>127.6006199164554</v>
+        <v>127.6006199164553</v>
       </c>
       <c r="I33" t="n">
-        <v>68.87107706235138</v>
+        <v>68.87107706235136</v>
       </c>
       <c r="J33" t="n">
-        <v>155.085978208049</v>
+        <v>68.87107706235136</v>
       </c>
       <c r="K33" t="n">
-        <v>428.9475953693139</v>
+        <v>342.7326942236162</v>
       </c>
       <c r="L33" t="n">
-        <v>854.4318126250496</v>
+        <v>768.216911479352</v>
       </c>
       <c r="M33" t="n">
-        <v>1409.088340266905</v>
+        <v>1322.873439121207</v>
       </c>
       <c r="N33" t="n">
-        <v>1546.121566595314</v>
+        <v>1905.604977625002</v>
       </c>
       <c r="O33" t="n">
-        <v>2003.698846912414</v>
+        <v>2363.182257942101</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.265836905488</v>
+        <v>2551.112987894594</v>
       </c>
       <c r="Q33" t="n">
         <v>2551.112987894594</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.6889598831763</v>
+        <v>409.6889598831762</v>
       </c>
       <c r="C34" t="n">
-        <v>347.1389705236493</v>
+        <v>347.1389705236492</v>
       </c>
       <c r="D34" t="n">
         <v>301.1330575302047</v>
       </c>
       <c r="E34" t="n">
-        <v>256.1900234703163</v>
+        <v>256.1900234703162</v>
       </c>
       <c r="F34" t="n">
         <v>210.7753486748861</v>
@@ -6850,10 +6850,10 @@
         <v>149.1566245507239</v>
       </c>
       <c r="H34" t="n">
-        <v>98.93971727199711</v>
+        <v>98.93971727199708</v>
       </c>
       <c r="I34" t="n">
-        <v>68.87107706235138</v>
+        <v>68.87107706235136</v>
       </c>
       <c r="J34" t="n">
         <v>131.2312878536305</v>
@@ -6865,19 +6865,19 @@
         <v>536.3270223921038</v>
       </c>
       <c r="M34" t="n">
-        <v>795.3669617645803</v>
+        <v>720.9576777238733</v>
       </c>
       <c r="N34" t="n">
-        <v>979.5678122793666</v>
+        <v>979.5678122793662</v>
       </c>
       <c r="O34" t="n">
-        <v>1215.52814679048</v>
+        <v>1215.528146790479</v>
       </c>
       <c r="P34" t="n">
-        <v>1411.293832814343</v>
+        <v>1411.293832814342</v>
       </c>
       <c r="Q34" t="n">
-        <v>1497.748842181537</v>
+        <v>1497.748842181536</v>
       </c>
       <c r="R34" t="n">
         <v>1465.861488721967</v>
@@ -6892,16 +6892,16 @@
         <v>1058.093756510118</v>
       </c>
       <c r="V34" t="n">
-        <v>904.4244322473334</v>
+        <v>904.4244322473332</v>
       </c>
       <c r="W34" t="n">
-        <v>725.3340109435252</v>
+        <v>725.3340109435251</v>
       </c>
       <c r="X34" t="n">
-        <v>601.1475270176936</v>
+        <v>601.1475270176935</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.1783483887634</v>
+        <v>486.1783483887633</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1199.792591056316</v>
       </c>
       <c r="D35" t="n">
-        <v>982.7725443380621</v>
+        <v>982.7725443380623</v>
       </c>
       <c r="E35" t="n">
-        <v>743.7907424986914</v>
+        <v>743.7907424986917</v>
       </c>
       <c r="F35" t="n">
-        <v>485.4434698633843</v>
+        <v>485.4434698633845</v>
       </c>
       <c r="G35" t="n">
         <v>225.6673923846451</v>
@@ -6935,13 +6935,13 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J35" t="n">
-        <v>169.6029711321571</v>
+        <v>169.6029711321573</v>
       </c>
       <c r="K35" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665065</v>
       </c>
       <c r="L35" t="n">
-        <v>904.000117401331</v>
+        <v>904.0001174013313</v>
       </c>
       <c r="M35" t="n">
         <v>1387.41655662286</v>
@@ -6971,13 +6971,13 @@
         <v>2516.032581063519</v>
       </c>
       <c r="V35" t="n">
-        <v>2334.857225013982</v>
+        <v>2334.857225013983</v>
       </c>
       <c r="W35" t="n">
         <v>2128.126212926106</v>
       </c>
       <c r="X35" t="n">
-        <v>1901.899990502121</v>
+        <v>1901.899990502122</v>
       </c>
       <c r="Y35" t="n">
         <v>1664.162053132482</v>
@@ -7014,25 +7014,25 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J36" t="n">
-        <v>140.2312601394511</v>
+        <v>54.01635899375341</v>
       </c>
       <c r="K36" t="n">
-        <v>414.0928773007159</v>
+        <v>161.2417161144369</v>
       </c>
       <c r="L36" t="n">
-        <v>839.5770945564517</v>
+        <v>586.7259333701727</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.233622198307</v>
+        <v>1141.382461012028</v>
       </c>
       <c r="N36" t="n">
-        <v>1531.266848526716</v>
+        <v>1724.113999515822</v>
       </c>
       <c r="O36" t="n">
-        <v>1988.844128843815</v>
+        <v>2181.691279832922</v>
       </c>
       <c r="P36" t="n">
-        <v>2343.411118836889</v>
+        <v>2536.258269825996</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.258269825996</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.6069591228102</v>
+        <v>82.18816612898014</v>
       </c>
       <c r="C37" t="n">
-        <v>98.79490763901302</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="D37" t="n">
-        <v>98.79490763901302</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="E37" t="n">
-        <v>98.79490763901302</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="F37" t="n">
-        <v>98.79490763901302</v>
+        <v>68.37611464518292</v>
       </c>
       <c r="G37" t="n">
         <v>55.49532839675044</v>
@@ -7114,31 +7114,31 @@
         <v>778.875984955763</v>
       </c>
       <c r="Q37" t="n">
-        <v>778.875984955763</v>
+        <v>760.0204010295915</v>
       </c>
       <c r="R37" t="n">
-        <v>778.875984955763</v>
+        <v>760.0204010295915</v>
       </c>
       <c r="S37" t="n">
-        <v>725.0663220418536</v>
+        <v>706.2107381156821</v>
       </c>
       <c r="T37" t="n">
-        <v>648.6955672277064</v>
+        <v>618.2767742338764</v>
       </c>
       <c r="U37" t="n">
-        <v>517.322066371103</v>
+        <v>486.903273377273</v>
       </c>
       <c r="V37" t="n">
-        <v>412.3906799840481</v>
+        <v>381.9718869902181</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0381965559698</v>
+        <v>251.6194035621397</v>
       </c>
       <c r="X37" t="n">
-        <v>206.589650505868</v>
+        <v>176.1708575120379</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.3584097526676</v>
+        <v>109.9396167588375</v>
       </c>
     </row>
     <row r="38">
@@ -7157,61 +7157,61 @@
         <v>982.7725443380621</v>
       </c>
       <c r="E38" t="n">
-        <v>743.7907424986914</v>
+        <v>743.7907424986917</v>
       </c>
       <c r="F38" t="n">
-        <v>485.4434698633843</v>
+        <v>485.4434698633847</v>
       </c>
       <c r="G38" t="n">
-        <v>225.6673923846451</v>
+        <v>225.667392384645</v>
       </c>
       <c r="H38" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="I38" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="J38" t="n">
-        <v>169.6029711321571</v>
+        <v>169.6029711321572</v>
       </c>
       <c r="K38" t="n">
-        <v>475.0705578665061</v>
+        <v>475.0705578665052</v>
       </c>
       <c r="L38" t="n">
-        <v>904.000117401331</v>
+        <v>904.00011740133</v>
       </c>
       <c r="M38" t="n">
-        <v>1387.41655662286</v>
+        <v>1387.416556622859</v>
       </c>
       <c r="N38" t="n">
-        <v>1857.384350833082</v>
+        <v>1857.384350833081</v>
       </c>
       <c r="O38" t="n">
-        <v>2248.918622866438</v>
+        <v>2248.918622866437</v>
       </c>
       <c r="P38" t="n">
-        <v>2550.926605720321</v>
+        <v>2550.92660572032</v>
       </c>
       <c r="Q38" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.81794968767</v>
       </c>
       <c r="R38" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.81794968767</v>
       </c>
       <c r="S38" t="n">
-        <v>2681.333337571028</v>
+        <v>2681.333337571027</v>
       </c>
       <c r="T38" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080014</v>
       </c>
       <c r="U38" t="n">
-        <v>2516.03258106352</v>
+        <v>2516.032581063519</v>
       </c>
       <c r="V38" t="n">
         <v>2334.857225013983</v>
       </c>
       <c r="W38" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926106</v>
       </c>
       <c r="X38" t="n">
         <v>1901.899990502122</v>
@@ -7248,7 +7248,7 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I39" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="J39" t="n">
         <v>140.2312601394511</v>
@@ -7263,13 +7263,13 @@
         <v>1394.233622198307</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.266848526716</v>
+        <v>1976.965160702101</v>
       </c>
       <c r="O39" t="n">
-        <v>1988.844128843815</v>
+        <v>2434.542441019201</v>
       </c>
       <c r="P39" t="n">
-        <v>2343.411118836889</v>
+        <v>2434.542441019201</v>
       </c>
       <c r="Q39" t="n">
         <v>2536.258269825996</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.18816612898014</v>
+        <v>93.75137519663971</v>
       </c>
       <c r="C40" t="n">
-        <v>68.37611464518292</v>
+        <v>79.93932371284262</v>
       </c>
       <c r="D40" t="n">
-        <v>68.37611464518292</v>
+        <v>79.93932371284262</v>
       </c>
       <c r="E40" t="n">
-        <v>68.37611464518292</v>
+        <v>79.93932371284262</v>
       </c>
       <c r="F40" t="n">
-        <v>68.37611464518292</v>
+        <v>79.93932371284262</v>
       </c>
       <c r="G40" t="n">
-        <v>55.49532839675044</v>
+        <v>67.05853746441026</v>
       </c>
       <c r="H40" t="n">
-        <v>54.01635899375341</v>
+        <v>65.57956806141335</v>
       </c>
       <c r="I40" t="n">
-        <v>54.01635899375341</v>
+        <v>65.57956806141335</v>
       </c>
       <c r="J40" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="K40" t="n">
         <v>114.3849974949681</v>
@@ -7351,31 +7351,31 @@
         <v>778.875984955763</v>
       </c>
       <c r="Q40" t="n">
-        <v>778.875984955763</v>
+        <v>760.0204010295915</v>
       </c>
       <c r="R40" t="n">
-        <v>778.875984955763</v>
+        <v>760.0204010295915</v>
       </c>
       <c r="S40" t="n">
-        <v>694.6475290480236</v>
+        <v>706.2107381156823</v>
       </c>
       <c r="T40" t="n">
-        <v>618.2767742338764</v>
+        <v>629.8399833015352</v>
       </c>
       <c r="U40" t="n">
-        <v>486.903273377273</v>
+        <v>498.466482444932</v>
       </c>
       <c r="V40" t="n">
-        <v>381.9718869902181</v>
+        <v>393.5350960578772</v>
       </c>
       <c r="W40" t="n">
-        <v>251.6194035621397</v>
+        <v>263.1826126297989</v>
       </c>
       <c r="X40" t="n">
-        <v>176.1708575120379</v>
+        <v>187.7340665796972</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.9396167588375</v>
+        <v>121.5028258264969</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1425.922431668987</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C41" t="n">
         <v>1199.792591056316</v>
       </c>
       <c r="D41" t="n">
-        <v>982.7725443380625</v>
+        <v>982.7725443380618</v>
       </c>
       <c r="E41" t="n">
-        <v>743.7907424986917</v>
+        <v>743.7907424986913</v>
       </c>
       <c r="F41" t="n">
-        <v>485.4434698633845</v>
+        <v>485.4434698633844</v>
       </c>
       <c r="G41" t="n">
-        <v>225.6673923846451</v>
+        <v>225.667392384645</v>
       </c>
       <c r="H41" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="I41" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="J41" t="n">
         <v>169.6029711321572</v>
@@ -7433,25 +7433,25 @@
         <v>2700.817949687671</v>
       </c>
       <c r="R41" t="n">
-        <v>2700.817949687671</v>
+        <v>2700.81794968767</v>
       </c>
       <c r="S41" t="n">
-        <v>2681.333337571028</v>
+        <v>2681.333337571027</v>
       </c>
       <c r="T41" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080013998</v>
       </c>
       <c r="U41" t="n">
-        <v>2516.03258106352</v>
+        <v>2516.032581063519</v>
       </c>
       <c r="V41" t="n">
         <v>2334.857225013983</v>
       </c>
       <c r="W41" t="n">
-        <v>2128.126212926107</v>
+        <v>2128.126212926106</v>
       </c>
       <c r="X41" t="n">
-        <v>1901.899990502123</v>
+        <v>1901.899990502122</v>
       </c>
       <c r="Y41" t="n">
         <v>1664.162053132483</v>
@@ -7485,28 +7485,28 @@
         <v>112.7459018478574</v>
       </c>
       <c r="I42" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="J42" t="n">
-        <v>54.01635899375341</v>
+        <v>140.2312601394511</v>
       </c>
       <c r="K42" t="n">
-        <v>327.8779761550182</v>
+        <v>414.0928773007159</v>
       </c>
       <c r="L42" t="n">
-        <v>753.362193410754</v>
+        <v>839.5770945564517</v>
       </c>
       <c r="M42" t="n">
-        <v>1308.018721052609</v>
+        <v>1394.233622198307</v>
       </c>
       <c r="N42" t="n">
-        <v>1724.113999515822</v>
+        <v>1531.266848526716</v>
       </c>
       <c r="O42" t="n">
-        <v>2181.691279832922</v>
+        <v>1988.844128843815</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.258269825996</v>
+        <v>2343.411118836889</v>
       </c>
       <c r="Q42" t="n">
         <v>2536.258269825996</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.18816612898014</v>
+        <v>82.18816612897979</v>
       </c>
       <c r="C43" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518268</v>
       </c>
       <c r="D43" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518268</v>
       </c>
       <c r="E43" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518268</v>
       </c>
       <c r="F43" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518268</v>
       </c>
       <c r="G43" t="n">
-        <v>55.49532839675044</v>
+        <v>55.49532839675032</v>
       </c>
       <c r="H43" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="I43" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="J43" t="n">
-        <v>54.01635899375341</v>
+        <v>54.0163589937534</v>
       </c>
       <c r="K43" t="n">
         <v>114.3849974949681</v>
@@ -7594,25 +7594,25 @@
         <v>778.875984955763</v>
       </c>
       <c r="S43" t="n">
-        <v>694.6475290480236</v>
+        <v>725.0663220418537</v>
       </c>
       <c r="T43" t="n">
-        <v>618.2767742338764</v>
+        <v>648.6955672277066</v>
       </c>
       <c r="U43" t="n">
-        <v>486.903273377273</v>
+        <v>486.9032733772719</v>
       </c>
       <c r="V43" t="n">
-        <v>381.9718869902181</v>
+        <v>381.9718869902172</v>
       </c>
       <c r="W43" t="n">
-        <v>251.6194035621397</v>
+        <v>251.6194035621389</v>
       </c>
       <c r="X43" t="n">
-        <v>176.1708575120379</v>
+        <v>176.1708575120373</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.9396167588375</v>
+        <v>109.939616758837</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1425.922431668987</v>
+        <v>1425.922431668986</v>
       </c>
       <c r="C44" t="n">
         <v>1199.792591056316</v>
@@ -7631,10 +7631,10 @@
         <v>982.7725443380623</v>
       </c>
       <c r="E44" t="n">
-        <v>743.7907424986918</v>
+        <v>743.7907424986915</v>
       </c>
       <c r="F44" t="n">
-        <v>485.443469863385</v>
+        <v>485.4434698633845</v>
       </c>
       <c r="G44" t="n">
         <v>225.6673923846451</v>
@@ -7646,7 +7646,7 @@
         <v>54.01635899375341</v>
       </c>
       <c r="J44" t="n">
-        <v>169.6029711321572</v>
+        <v>169.6029711321571</v>
       </c>
       <c r="K44" t="n">
         <v>475.0705578665061</v>
@@ -7673,10 +7673,10 @@
         <v>2700.817949687671</v>
       </c>
       <c r="S44" t="n">
-        <v>2681.333337571029</v>
+        <v>2681.333337571028</v>
       </c>
       <c r="T44" t="n">
-        <v>2615.072080013999</v>
+        <v>2615.072080013998</v>
       </c>
       <c r="U44" t="n">
         <v>2516.03258106352</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.18816612898014</v>
+        <v>82.18816612898004</v>
       </c>
       <c r="C46" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518287</v>
       </c>
       <c r="D46" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518287</v>
       </c>
       <c r="E46" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518287</v>
       </c>
       <c r="F46" t="n">
-        <v>68.37611464518292</v>
+        <v>68.37611464518287</v>
       </c>
       <c r="G46" t="n">
-        <v>55.49532839675044</v>
+        <v>55.49532839675042</v>
       </c>
       <c r="H46" t="n">
         <v>54.01635899375341</v>
@@ -7831,25 +7831,25 @@
         <v>778.875984955763</v>
       </c>
       <c r="S46" t="n">
-        <v>725.0663220418536</v>
+        <v>694.6475290480232</v>
       </c>
       <c r="T46" t="n">
-        <v>648.6955672277064</v>
+        <v>618.276774233876</v>
       </c>
       <c r="U46" t="n">
-        <v>517.322066371103</v>
+        <v>486.9032733772727</v>
       </c>
       <c r="V46" t="n">
-        <v>381.9718869902181</v>
+        <v>381.9718869902178</v>
       </c>
       <c r="W46" t="n">
-        <v>251.6194035621397</v>
+        <v>251.6194035621394</v>
       </c>
       <c r="X46" t="n">
-        <v>176.1708575120379</v>
+        <v>176.1708575120377</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.9396167588375</v>
+        <v>109.9396167588373</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>190.7659506544006</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>199.099261177513</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
         <v>197.8585175523677</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,28 +8529,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.5159750468043</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N9" t="n">
         <v>118.6580877480622</v>
       </c>
       <c r="O9" t="n">
-        <v>127.3198519912487</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8617,16 +8617,16 @@
         <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>115.2049082581395</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>123.9563408722598</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>103.0714460485405</v>
+        <v>205.0090988203378</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>226.5417426828555</v>
+        <v>124.6040899110584</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406829</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950356</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,16 +9015,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>172.9447713179474</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>343.7015604733026</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>78.3053720474051</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236966</v>
+        <v>219.8255997236965</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236965</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578767</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.83258720950356</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>88.39959479687852</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>245.6821446454726</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>78.3053720474051</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950356</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>172.9447713179476</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>245.6821446454731</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>78.3053720474051</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950356</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>172.9447713179478</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>245.6821446454731</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>78.3053720474051</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.83258720950356</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>175.4853535299065</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>172.9447713179474</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>78.3053720474051</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,7 +10823,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>421.389036342513</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>172.9447713179474</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>55.85312449143971</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>181.0486334684101</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.83258720950356</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>454.8256320601737</v>
+        <v>172.9447713179474</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.3053720474051</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11297,7 +11297,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425139</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>284.1260243564842</v>
       </c>
       <c r="E11" t="n">
-        <v>305.8681619263896</v>
+        <v>305.8681619263897</v>
       </c>
       <c r="F11" t="n">
-        <v>325.0399780143668</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.21942680786246</v>
+        <v>55.13338046574519</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.6397805944535</v>
+        <v>248.6397805944536</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.51922332772985</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.94132010794321</v>
+        <v>50.79357341598956</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>199.33594395345</v>
+        <v>32.4742588707899</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>198.3251366992103</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.9702386950135</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>134.8451064510812</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>305.1334033542744</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>13.43524824986881</v>
+        <v>305.8681619263896</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>325.0399780143668</v>
       </c>
       <c r="G14" t="n">
-        <v>326.4544948093649</v>
+        <v>33.82495018074771</v>
       </c>
       <c r="H14" t="n">
-        <v>239.2107011623955</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.12017415851109</v>
+        <v>66.12017415851106</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.56594410088924</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>134.8748230868716</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>167.3252820663874</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.75011422897147</v>
+        <v>96.75011422897144</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95010907437195</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>38.41271543451638</v>
+        <v>66.57147347195031</v>
       </c>
       <c r="E16" t="n">
-        <v>65.51922332772979</v>
+        <v>65.51922332772976</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.98614765591607</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>29.38776912663155</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.79357341598948</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>52.59409953341377</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.9702386950134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.304070691131495e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1285867.922202146</v>
+        <v>1285867.922202147</v>
       </c>
     </row>
     <row r="8">
@@ -26314,10 +26314,10 @@
         <v>191469.1578768262</v>
       </c>
       <c r="C2" t="n">
-        <v>191469.1578768261</v>
+        <v>191469.1578768262</v>
       </c>
       <c r="D2" t="n">
-        <v>191906.0151235455</v>
+        <v>191906.0151235456</v>
       </c>
       <c r="E2" t="n">
         <v>165482.2757801049</v>
@@ -26341,13 +26341,13 @@
         <v>191906.0151235449</v>
       </c>
       <c r="L2" t="n">
-        <v>191906.0151235453</v>
+        <v>191906.0151235454</v>
       </c>
       <c r="M2" t="n">
         <v>191906.0151235453</v>
       </c>
       <c r="N2" t="n">
-        <v>191906.0151235453</v>
+        <v>191906.0151235452</v>
       </c>
       <c r="O2" t="n">
         <v>191906.0151235452</v>
@@ -26375,34 +26375,34 @@
         <v>357147.4969845472</v>
       </c>
       <c r="F3" t="n">
-        <v>12028.22113062405</v>
+        <v>12028.22113062404</v>
       </c>
       <c r="G3" t="n">
-        <v>55420.94248433012</v>
+        <v>55420.94248433017</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78611.30900564831</v>
+        <v>78611.30900564825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.71771218361599e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57892.84581644309</v>
+        <v>57892.84581644314</v>
       </c>
       <c r="M3" t="n">
-        <v>147153.2244248484</v>
+        <v>147153.2244248483</v>
       </c>
       <c r="N3" t="n">
         <v>10281.91548711236</v>
       </c>
       <c r="O3" t="n">
-        <v>26903.4104851607</v>
+        <v>26903.41048516065</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>387995.6593825327</v>
       </c>
       <c r="D4" t="n">
-        <v>387212.3726853604</v>
+        <v>387212.3726853603</v>
       </c>
       <c r="E4" t="n">
-        <v>219407.5105365946</v>
+        <v>219407.5105365945</v>
       </c>
       <c r="F4" t="n">
-        <v>223396.7363758595</v>
+        <v>223396.7363758596</v>
       </c>
       <c r="G4" t="n">
         <v>276131.512787101</v>
@@ -26476,13 +26476,13 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>48456.45393157421</v>
+        <v>48456.4539315742</v>
       </c>
       <c r="F5" t="n">
-        <v>51008.80814983692</v>
+        <v>51008.80814983691</v>
       </c>
       <c r="G5" t="n">
-        <v>56832.78716698086</v>
+        <v>56832.78716698087</v>
       </c>
       <c r="H5" t="n">
         <v>56832.78716698087</v>
@@ -26497,7 +26497,7 @@
         <v>64532.36480346457</v>
       </c>
       <c r="L5" t="n">
-        <v>64065.99669683332</v>
+        <v>64065.99669683331</v>
       </c>
       <c r="M5" t="n">
         <v>56832.78716698085</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230154.1015057065</v>
+        <v>-230158.4700781737</v>
       </c>
       <c r="C6" t="n">
-        <v>-230154.1015057066</v>
+        <v>-230158.4700781737</v>
       </c>
       <c r="D6" t="n">
-        <v>-233369.9262472987</v>
+        <v>-233369.9262472985</v>
       </c>
       <c r="E6" t="n">
-        <v>-459529.1856726112</v>
+        <v>-459793.4230660454</v>
       </c>
       <c r="F6" t="n">
-        <v>-117709.4996232608</v>
+        <v>-117941.3171141657</v>
       </c>
       <c r="G6" t="n">
-        <v>-196479.2273148667</v>
+        <v>-196479.2273148668</v>
       </c>
       <c r="H6" t="n">
-        <v>-141058.2848305367</v>
+        <v>-141058.2848305366</v>
       </c>
       <c r="I6" t="n">
         <v>-141058.2848305366</v>
@@ -26549,13 +26549,13 @@
         <v>-149793.8081547048</v>
       </c>
       <c r="L6" t="n">
-        <v>-207156.3182034939</v>
+        <v>-207156.3182034938</v>
       </c>
       <c r="M6" t="n">
         <v>-288211.5092553849</v>
       </c>
       <c r="N6" t="n">
-        <v>-151340.2003176489</v>
+        <v>-151340.200317649</v>
       </c>
       <c r="O6" t="n">
         <v>-167961.6953156973</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="F2" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="G2" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="H2" t="n">
         <v>154.2458788739773</v>
@@ -26719,10 +26719,10 @@
         <v>154.2458788739773</v>
       </c>
       <c r="N2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="O2" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="P2" t="n">
         <v>154.2458788739773</v>
@@ -26799,13 +26799,13 @@
         <v>633.2249772531233</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2044874219179</v>
+        <v>675.2044874219176</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2044874219179</v>
+        <v>675.204487421918</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2044874219179</v>
+        <v>675.204487421918</v>
       </c>
       <c r="I4" t="n">
         <v>675.2044874219176</v>
@@ -26814,19 +26814,19 @@
         <v>872.8314099597461</v>
       </c>
       <c r="K4" t="n">
-        <v>872.831409959746</v>
+        <v>872.8314099597459</v>
       </c>
       <c r="L4" t="n">
-        <v>860.8884632793921</v>
+        <v>860.888463279392</v>
       </c>
       <c r="M4" t="n">
         <v>675.2044874219176</v>
       </c>
       <c r="N4" t="n">
-        <v>675.2044874219176</v>
+        <v>675.2044874219175</v>
       </c>
       <c r="O4" t="n">
-        <v>675.2044874219176</v>
+        <v>675.2044874219175</v>
       </c>
       <c r="P4" t="n">
         <v>675.2044874219176</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>69.27617810541265</v>
+        <v>69.27617810541271</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.62926310645088</v>
+        <v>33.62926310645081</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.36605727055387</v>
+        <v>72.36605727055392</v>
       </c>
       <c r="M2" t="n">
-        <v>48.25055849697256</v>
+        <v>48.25055849697246</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645088</v>
+        <v>33.62926310645081</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>621.2820305727694</v>
       </c>
       <c r="F4" t="n">
-        <v>41.9795101687946</v>
+        <v>41.97951016879438</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>435.5980547152949</v>
+        <v>435.598054715295</v>
       </c>
       <c r="N4" t="n">
-        <v>41.9795101687946</v>
+        <v>41.97951016879426</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>8.226054757999787e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>69.27617810541265</v>
+        <v>69.27617810541271</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.62926310645088</v>
+        <v>33.62926310645081</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.647140229519987e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>621.2820305727694</v>
       </c>
       <c r="N4" t="n">
-        <v>41.9795101687946</v>
+        <v>41.97951016879438</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>399.4903313468757</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>159.1460801229381</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>77.7889569587513</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>174.8373381798939</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27935,7 +27935,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>125.5073039593362</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>86.99553219841505</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.17911502078391</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.24347953564978</v>
+        <v>48.66707877994797</v>
       </c>
       <c r="S9" t="n">
         <v>139.3285454370332</v>
@@ -28029,7 +28029,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>130.8180672729944</v>
+        <v>132.2416665172925</v>
       </c>
       <c r="J10" t="n">
         <v>47.51371951961512</v>
@@ -28056,7 +28056,7 @@
         <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
-        <v>137.5072161357099</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28071,7 +28071,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>271.351890787421</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="C11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="D11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="E11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="F11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="G11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="H11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="I11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>57.14590470143909</v>
       </c>
       <c r="S11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="T11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="U11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="V11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="W11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="X11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="C13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="D13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="E13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="F13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="G13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="H13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="I13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="J13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="K13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="L13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="M13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="N13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="O13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="P13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="R13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="S13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="T13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="U13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="V13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="W13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="X13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856449</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="C14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="D14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="E14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="F14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="G14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="H14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="I14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>57.14590470143909</v>
       </c>
       <c r="S14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="T14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="U14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="V14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="W14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="X14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="C16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="D16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="E16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="F16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="G16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="H16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="I16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="J16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="K16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="L16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="M16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="N16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="O16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="P16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="R16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="S16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="T16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="U16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="V16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="W16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="X16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.96970076856455</v>
+        <v>84.96970076856458</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="C17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="D17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="E17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="F17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="G17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="H17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="I17" t="n">
         <v>151.0898749270756</v>
@@ -28612,25 +28612,25 @@
         <v>57.14590470143909</v>
       </c>
       <c r="S17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="T17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="U17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="V17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="W17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="X17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="Y17" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
     </row>
     <row r="18">
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="C19" t="n">
-        <v>124.1312738100861</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>121.4265691766226</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,10 +28734,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="H19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="I19" t="n">
         <v>135.7632741845541</v>
@@ -28770,25 +28770,25 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="T19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="U19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="V19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="W19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="X19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.2458788739772</v>
+        <v>154.2458788739773</v>
       </c>
     </row>
     <row r="20">
@@ -29010,7 +29010,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="T22" t="n">
-        <v>124.1312738100852</v>
+        <v>124.131273810085</v>
       </c>
       <c r="U22" t="n">
         <v>154.2458788739773</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>120.8412433605889</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>154.2458788739773</v>
@@ -29241,7 +29241,7 @@
         <v>18.66702808690973</v>
       </c>
       <c r="R25" t="n">
-        <v>137.5638003019783</v>
+        <v>107.4491952380866</v>
       </c>
       <c r="S25" t="n">
         <v>154.2458788739773</v>
@@ -29314,10 +29314,10 @@
         <v>102.9054412118636</v>
       </c>
       <c r="P26" t="n">
-        <v>16.42513899469878</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.9054412118636</v>
+        <v>16.42513899469921</v>
       </c>
       <c r="R26" t="n">
         <v>102.9054412118636</v>
@@ -29533,7 +29533,7 @@
         <v>102.9054412118636</v>
       </c>
       <c r="J29" t="n">
-        <v>102.9054412118636</v>
+        <v>16.42513899469799</v>
       </c>
       <c r="K29" t="n">
         <v>102.9054412118636</v>
@@ -29551,7 +29551,7 @@
         <v>102.9054412118636</v>
       </c>
       <c r="P29" t="n">
-        <v>16.42513899469878</v>
+        <v>102.9054412118636</v>
       </c>
       <c r="Q29" t="n">
         <v>102.9054412118636</v>
@@ -29779,16 +29779,16 @@
         <v>105.9953203770048</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="N32" t="n">
-        <v>50.41218262937457</v>
+        <v>105.9953203770048</v>
       </c>
       <c r="O32" t="n">
-        <v>105.9953203770048</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>105.9953203770048</v>
+        <v>50.41218262937434</v>
       </c>
       <c r="Q32" t="n">
         <v>105.9953203770048</v>
@@ -29937,10 +29937,10 @@
         <v>105.9953203770048</v>
       </c>
       <c r="M34" t="n">
+        <v>30.83442740659373</v>
+      </c>
+      <c r="N34" t="n">
         <v>105.9953203770048</v>
-      </c>
-      <c r="N34" t="n">
-        <v>30.83442740659424</v>
       </c>
       <c r="O34" t="n">
         <v>105.9953203770048</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>124.1312738100855</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="H37" t="n">
         <v>154.2458788739773</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.66702808690973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>137.5638003019783</v>
@@ -30195,7 +30195,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="T37" t="n">
-        <v>154.2458788739773</v>
+        <v>142.7983018969953</v>
       </c>
       <c r="U37" t="n">
         <v>154.2458788739773</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="C38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="D38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="E38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="F38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="G38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="H38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="I38" t="n">
         <v>151.0898749270756</v>
@@ -30271,25 +30271,25 @@
         <v>57.14590470143909</v>
       </c>
       <c r="S38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="T38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="U38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="V38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="W38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="X38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="C40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,16 +30393,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="H40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="I40" t="n">
         <v>135.7632741845541</v>
       </c>
       <c r="J40" t="n">
-        <v>43.00520846662183</v>
+        <v>31.55763148963847</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.66702808690973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.5638003019783</v>
       </c>
       <c r="S40" t="n">
-        <v>124.1312738100856</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="T40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="U40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="V40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="W40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="X40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="C41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="D41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="E41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="F41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="G41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="H41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="I41" t="n">
         <v>151.0898749270756</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.14590470143909</v>
+        <v>57.14590470143818</v>
       </c>
       <c r="S41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="T41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="U41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="V41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="W41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="X41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="Y41" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="C43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,10 +30630,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="H43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="I43" t="n">
         <v>135.7632741845541</v>
@@ -30666,25 +30666,25 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S43" t="n">
-        <v>124.1312738100856</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="T43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="U43" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100842</v>
       </c>
       <c r="V43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="W43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="X43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.2458788739773</v>
+        <v>154.2458788739774</v>
       </c>
     </row>
     <row r="44">
@@ -30903,7 +30903,7 @@
         <v>137.5638003019783</v>
       </c>
       <c r="S46" t="n">
-        <v>154.2458788739773</v>
+        <v>124.1312738100852</v>
       </c>
       <c r="T46" t="n">
         <v>154.2458788739773</v>
@@ -30912,7 +30912,7 @@
         <v>154.2458788739773</v>
       </c>
       <c r="V46" t="n">
-        <v>124.1312738100855</v>
+        <v>154.2458788739773</v>
       </c>
       <c r="W46" t="n">
         <v>154.2458788739773</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O9" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="P10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.9376527717973</v>
       </c>
       <c r="K11" t="n">
         <v>308.553117913484</v>
@@ -35428,7 +35428,7 @@
         <v>305.0585685392763</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.9376527717971</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.96449230194272</v>
+        <v>41.96449230194266</v>
       </c>
       <c r="K13" t="n">
-        <v>145.9481234970643</v>
+        <v>145.9481234970642</v>
       </c>
       <c r="L13" t="n">
-        <v>221.1882479309777</v>
+        <v>221.1882479309776</v>
       </c>
       <c r="M13" t="n">
-        <v>240.6308848082027</v>
+        <v>240.6308848082026</v>
       </c>
       <c r="N13" t="n">
-        <v>240.1967385284212</v>
+        <v>240.1967385284211</v>
       </c>
       <c r="O13" t="n">
         <v>217.3181526250073</v>
       </c>
       <c r="P13" t="n">
-        <v>176.7174975873807</v>
+        <v>176.7174975873806</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.30267268165483</v>
+        <v>66.30267268165477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>433.2621813483079</v>
       </c>
       <c r="M14" t="n">
-        <v>488.2994335571006</v>
+        <v>488.2994335570999</v>
       </c>
       <c r="N14" t="n">
         <v>474.7149436466892</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>276.6278961224897</v>
@@ -35735,16 +35735,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N15" t="n">
-        <v>138.4174003317263</v>
+        <v>588.6177156603984</v>
       </c>
       <c r="O15" t="n">
-        <v>462.1992730475755</v>
+        <v>293.8798184611297</v>
       </c>
       <c r="P15" t="n">
         <v>358.1484747404786</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.96449230194272</v>
+        <v>41.96449230194275</v>
       </c>
       <c r="K16" t="n">
         <v>145.9481234970643</v>
       </c>
       <c r="L16" t="n">
-        <v>221.1882479309777</v>
+        <v>221.1882479309778</v>
       </c>
       <c r="M16" t="n">
         <v>240.6308848082027</v>
@@ -35823,7 +35823,7 @@
         <v>176.7174975873807</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.30267268165483</v>
+        <v>66.30267268165485</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>108.308441536044</v>
+        <v>108.3084415360439</v>
       </c>
       <c r="L18" t="n">
         <v>429.7820376320563</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.7541536751554</v>
+        <v>116.754153675156</v>
       </c>
       <c r="K20" t="n">
         <v>308.553117913484</v>
@@ -36139,7 +36139,7 @@
         <v>305.0585685392763</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.4053979468183</v>
+        <v>151.4053979468177</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.08575873302793</v>
       </c>
       <c r="K24" t="n">
-        <v>276.6278961224897</v>
+        <v>21.22268280301602</v>
       </c>
       <c r="L24" t="n">
         <v>429.7820376320563</v>
@@ -36452,7 +36452,7 @@
         <v>462.1992730475755</v>
       </c>
       <c r="P24" t="n">
-        <v>189.8290201540329</v>
+        <v>358.1484747404786</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>498.3946048819195</v>
       </c>
       <c r="P26" t="n">
-        <v>321.4837075339751</v>
+        <v>407.9640097511398</v>
       </c>
       <c r="Q26" t="n">
-        <v>254.3108391586813</v>
+        <v>167.8305369415169</v>
       </c>
       <c r="R26" t="n">
-        <v>45.7595365104245</v>
+        <v>45.75953651042449</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>276.6278961224897</v>
@@ -36683,16 +36683,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N27" t="n">
-        <v>138.4174003317265</v>
+        <v>588.6177156603984</v>
       </c>
       <c r="O27" t="n">
         <v>462.1992730475755</v>
       </c>
       <c r="P27" t="n">
-        <v>358.1484747404786</v>
+        <v>189.8290201540334</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.90023274524176</v>
+        <v>59.90023274524174</v>
       </c>
       <c r="K28" t="n">
         <v>163.8838639403633</v>
@@ -36765,13 +36765,13 @@
         <v>258.1324789717202</v>
       </c>
       <c r="O28" t="n">
-        <v>235.2538930683064</v>
+        <v>235.2538930683063</v>
       </c>
       <c r="P28" t="n">
         <v>194.6532380306797</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.23841312495387</v>
+        <v>84.23841312495384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.659594887019</v>
+        <v>133.1792926698534</v>
       </c>
       <c r="K29" t="n">
         <v>411.4585591253475</v>
@@ -36847,13 +36847,13 @@
         <v>498.3946048819195</v>
       </c>
       <c r="P29" t="n">
-        <v>321.4837075339751</v>
+        <v>407.9640097511399</v>
       </c>
       <c r="Q29" t="n">
         <v>254.3108391586813</v>
       </c>
       <c r="R29" t="n">
-        <v>45.75953651042449</v>
+        <v>45.7595365104245</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.90023274524174</v>
+        <v>59.90023274524176</v>
       </c>
       <c r="K31" t="n">
         <v>163.8838639403633</v>
@@ -37002,13 +37002,13 @@
         <v>258.1324789717202</v>
       </c>
       <c r="O31" t="n">
-        <v>235.2538930683063</v>
+        <v>235.2538930683064</v>
       </c>
       <c r="P31" t="n">
         <v>194.6532380306797</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.23841312495384</v>
+        <v>84.23841312495387</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>539.2575017253127</v>
       </c>
       <c r="M32" t="n">
-        <v>488.2994335570999</v>
+        <v>594.2947539341046</v>
       </c>
       <c r="N32" t="n">
-        <v>525.1271262760638</v>
+        <v>580.710264023694</v>
       </c>
       <c r="O32" t="n">
-        <v>501.4844840470607</v>
+        <v>395.4891636700559</v>
       </c>
       <c r="P32" t="n">
-        <v>411.053888916281</v>
+        <v>355.4707511686506</v>
       </c>
       <c r="Q32" t="n">
         <v>257.4007183238225</v>
       </c>
       <c r="R32" t="n">
-        <v>48.8494156755657</v>
+        <v>48.84941567556572</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>276.6278961224897</v>
@@ -37157,16 +37157,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N33" t="n">
-        <v>138.4174003317267</v>
+        <v>588.6177156603984</v>
       </c>
       <c r="O33" t="n">
         <v>462.1992730475755</v>
       </c>
       <c r="P33" t="n">
-        <v>358.1484747404786</v>
+        <v>189.8290201540334</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.99011191038296</v>
+        <v>62.99011191038297</v>
       </c>
       <c r="K34" t="n">
         <v>166.9737431055045</v>
@@ -37233,19 +37233,19 @@
         <v>242.2138675394179</v>
       </c>
       <c r="M34" t="n">
-        <v>261.6565044166429</v>
+        <v>186.4956114462318</v>
       </c>
       <c r="N34" t="n">
-        <v>186.0614651664509</v>
+        <v>261.2223581368614</v>
       </c>
       <c r="O34" t="n">
-        <v>238.3437722334475</v>
+        <v>238.3437722334476</v>
       </c>
       <c r="P34" t="n">
         <v>197.7431171958209</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.32829229009505</v>
+        <v>87.32829229009508</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.08575873302793</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>276.6278961224897</v>
+        <v>108.308441536044</v>
       </c>
       <c r="L36" t="n">
         <v>429.7820376320563</v>
@@ -37394,7 +37394,7 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N36" t="n">
-        <v>138.4174003317263</v>
+        <v>588.6177156603984</v>
       </c>
       <c r="O36" t="n">
         <v>462.1992730475755</v>
@@ -37403,7 +37403,7 @@
         <v>358.1484747404786</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.7951020091987</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K38" t="n">
-        <v>308.553117913484</v>
+        <v>308.5531179134828</v>
       </c>
       <c r="L38" t="n">
         <v>433.2621813483079</v>
@@ -37631,16 +37631,16 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N39" t="n">
-        <v>138.4174003317263</v>
+        <v>588.6177156603984</v>
       </c>
       <c r="O39" t="n">
         <v>462.1992730475755</v>
       </c>
       <c r="P39" t="n">
-        <v>358.1484747404786</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.7951020091987</v>
+        <v>102.7432614210049</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.08575873302793</v>
       </c>
       <c r="K42" t="n">
         <v>276.6278961224897</v>
@@ -37868,7 +37868,7 @@
         <v>560.2591188301566</v>
       </c>
       <c r="N42" t="n">
-        <v>420.2982610739527</v>
+        <v>138.4174003317263</v>
       </c>
       <c r="O42" t="n">
         <v>462.1992730475755</v>
@@ -37877,7 +37877,7 @@
         <v>358.1484747404786</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>194.7951020091987</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>116.7541536751554</v>
       </c>
       <c r="K44" t="n">
-        <v>308.5531179134837</v>
+        <v>308.553117913484</v>
       </c>
       <c r="L44" t="n">
         <v>433.2621813483079</v>
